--- a/content/post/2020-06-29-teaching-a-2-days-forecasting-in-r-workshop-virtually/priority.xlsx
+++ b/content/post/2020-06-29-teaching-a-2-days-forecasting-in-r-workshop-virtually/priority.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bahmanrostami-tabar/Documents/BRTBlog/content/post/2020-06-29-teaching-a-2-days-forecasting-in-r-workshop-virtually/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69321C00-E511-1A47-9D8C-A5E019EC02AB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26BAC0F-7E9E-9440-8C57-2169AF6C638C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14500" xr2:uid="{1532A227-53F9-A947-ABAE-BFD2B9CD8349}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="prioritise content" sheetId="1" r:id="rId1"/>
     <sheet name="legend" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -94,7 +94,40 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>If the total score is below 7, then put it in gOOD TO KNOW</t>
+          <t>after completing the table, sort it based on total score</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{9085AE9E-1553-014A-BB79-BF79AD772196}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bahman Rostami-Tabar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If cumulative time is greater than the allocated time for the session , then put it in Good to know</t>
         </r>
       </text>
     </comment>
@@ -147,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Topic</t>
   </si>
@@ -258,13 +291,22 @@
   </si>
   <si>
     <t>use it few times</t>
+  </si>
+  <si>
+    <t>time allocated(min)</t>
+  </si>
+  <si>
+    <t>cumulative time</t>
+  </si>
+  <si>
+    <t>ETS framework</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -299,14 +341,6 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -371,25 +405,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -397,6 +422,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,24 +746,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2194E4D-DFDA-F94F-9EBC-5DD647DDEBC4}">
-  <dimension ref="B2:I12"/>
+  <dimension ref="B2:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="30.5" customWidth="1"/>
     <col min="6" max="6" width="29.5" customWidth="1"/>
     <col min="7" max="7" width="26.5" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="8" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,292 +786,403 @@
         <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="7">
-        <v>3</v>
-      </c>
-      <c r="E3" s="7">
-        <v>3</v>
-      </c>
-      <c r="F3" s="7">
-        <v>3</v>
-      </c>
-      <c r="G3" s="7">
-        <v>2</v>
-      </c>
-      <c r="H3" s="7">
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6">
+        <v>3</v>
+      </c>
+      <c r="H3" s="8">
         <f>SUM(D3:G3)</f>
-        <v>11</v>
-      </c>
-      <c r="I3" s="7" t="str">
+        <v>12</v>
+      </c>
+      <c r="I3" s="8">
+        <v>7</v>
+      </c>
+      <c r="J3" s="8">
+        <f>I3</f>
+        <v>7</v>
+      </c>
+      <c r="K3" s="6" t="str">
         <f>IF(H3&lt;= 6, "Good to Know","Must to Know")</f>
         <v>Must to Know</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="11">
-        <v>3</v>
-      </c>
-      <c r="E4" s="11">
-        <v>3</v>
-      </c>
-      <c r="F4" s="11">
-        <v>3</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="C4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6">
+        <v>3</v>
+      </c>
+      <c r="G4" s="6">
         <v>2</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="6">
         <f>SUM(D4:G4)</f>
         <v>11</v>
       </c>
-      <c r="I4" s="7" t="str">
+      <c r="I4" s="6">
+        <v>10</v>
+      </c>
+      <c r="J4" s="6">
+        <f>J3+I4</f>
+        <v>17</v>
+      </c>
+      <c r="K4" s="6" t="str">
         <f>IF(H4&lt;= 6, "Good to Know","Must to Know")</f>
         <v>Must to Know</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="11">
-        <v>3</v>
-      </c>
-      <c r="E5" s="11">
-        <v>3</v>
-      </c>
-      <c r="F5" s="11">
-        <v>3</v>
-      </c>
-      <c r="G5" s="7">
-        <v>3</v>
-      </c>
-      <c r="H5" s="11">
+      <c r="C5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2</v>
+      </c>
+      <c r="H5" s="8">
         <f>SUM(D5:G5)</f>
-        <v>12</v>
-      </c>
-      <c r="I5" s="7" t="str">
+        <v>11</v>
+      </c>
+      <c r="I5" s="8">
+        <v>7</v>
+      </c>
+      <c r="J5" s="6">
+        <f>J4+I5</f>
+        <v>24</v>
+      </c>
+      <c r="K5" s="6" t="str">
         <f>IF(H5&lt;= 6, "Good to Know","Must to Know")</f>
         <v>Must to Know</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="11">
-        <v>3</v>
-      </c>
-      <c r="E6" s="11">
-        <v>3</v>
-      </c>
-      <c r="F6" s="11">
-        <v>3</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="D6" s="8">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3</v>
+      </c>
+      <c r="G6" s="6">
         <v>2</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="8">
         <f>SUM(D6:G6)</f>
         <v>11</v>
       </c>
-      <c r="I6" s="7" t="str">
+      <c r="I6" s="8">
+        <v>7</v>
+      </c>
+      <c r="J6" s="6">
+        <f>J5+I6</f>
+        <v>31</v>
+      </c>
+      <c r="K6" s="6" t="str">
         <f>IF(H6&lt;= 6, "Good to Know","Must to Know")</f>
         <v>Must to Know</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="11">
-        <v>3</v>
-      </c>
-      <c r="E7" s="11">
-        <v>3</v>
-      </c>
-      <c r="F7" s="11">
-        <v>3</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="D7" s="8">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3</v>
+      </c>
+      <c r="G7" s="6">
         <v>2</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="8">
         <f>SUM(D7:G7)</f>
         <v>11</v>
       </c>
-      <c r="I7" s="7" t="str">
+      <c r="I7" s="8">
+        <v>7</v>
+      </c>
+      <c r="J7" s="6">
+        <f>J6+I7</f>
+        <v>38</v>
+      </c>
+      <c r="K7" s="6" t="str">
         <f>IF(H7&lt;= 6, "Good to Know","Must to Know")</f>
         <v>Must to Know</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="11">
-        <v>3</v>
-      </c>
-      <c r="E8" s="11">
-        <v>3</v>
-      </c>
-      <c r="F8" s="11">
-        <v>3</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="D8" s="8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="6">
         <v>2</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="8">
         <f>SUM(D8:G8)</f>
         <v>11</v>
       </c>
-      <c r="I8" s="7" t="str">
+      <c r="I8" s="8">
+        <v>7</v>
+      </c>
+      <c r="J8" s="6">
+        <f>J7+I8</f>
+        <v>45</v>
+      </c>
+      <c r="K8" s="6" t="str">
         <f>IF(H8&lt;= 6, "Good to Know","Must to Know")</f>
         <v>Must to Know</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="11">
-        <v>3</v>
-      </c>
-      <c r="E9" s="11">
-        <v>3</v>
-      </c>
-      <c r="F9" s="11">
-        <v>3</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="D9" s="8">
+        <v>3</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3</v>
+      </c>
+      <c r="F9" s="8">
+        <v>3</v>
+      </c>
+      <c r="G9" s="6">
         <v>2</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="8">
         <f>SUM(D9:G9)</f>
         <v>11</v>
       </c>
-      <c r="I9" s="7" t="str">
+      <c r="I9" s="8">
+        <v>7</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" ref="J9:J13" si="0">J8+I9</f>
+        <v>52</v>
+      </c>
+      <c r="K9" s="6" t="str">
         <f>IF(H9&lt;= 6, "Good to Know","Must to Know")</f>
         <v>Must to Know</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="11">
-        <v>3</v>
-      </c>
-      <c r="E10" s="11">
-        <v>3</v>
-      </c>
-      <c r="F10" s="11">
-        <v>3</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="D10" s="8">
+        <v>3</v>
+      </c>
+      <c r="E10" s="8">
+        <v>3</v>
+      </c>
+      <c r="F10" s="8">
+        <v>3</v>
+      </c>
+      <c r="G10" s="6">
         <v>2</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="8">
         <f>SUM(D10:G10)</f>
         <v>11</v>
       </c>
-      <c r="I10" s="7" t="str">
+      <c r="I10" s="8">
+        <v>7</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="K10" s="6" t="str">
         <f>IF(H10&lt;= 6, "Good to Know","Must to Know")</f>
         <v>Must to Know</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="12">
-        <v>3</v>
-      </c>
-      <c r="E11" s="12">
-        <v>3</v>
-      </c>
-      <c r="F11" s="12">
+      <c r="D11" s="13">
+        <v>3</v>
+      </c>
+      <c r="E11" s="13">
+        <v>3</v>
+      </c>
+      <c r="F11" s="9">
         <v>0</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="9">
         <v>0</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="9">
         <f>SUM(D11:G11)</f>
         <v>6</v>
       </c>
-      <c r="I11" s="12" t="str">
+      <c r="I11" s="9">
+        <v>7</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="K11" s="9" t="str">
         <f>IF(H11&lt;= 6, "Good to Know","Must to Know")</f>
         <v>Good to Know</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="12">
-        <v>3</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="D12" s="13">
+        <v>3</v>
+      </c>
+      <c r="E12" s="13">
         <v>2</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="9">
         <v>1</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="9">
         <v>0</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="9">
         <f>SUM(D12:G12)</f>
         <v>6</v>
       </c>
-      <c r="I12" s="5" t="str">
+      <c r="I12" s="9">
+        <v>7</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="K12" s="9" t="str">
         <f>IF(H12&lt;= 6, "Good to Know","Must to Know")</f>
         <v>Good to Know</v>
       </c>
     </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <f>SUM(D13:G13)</f>
+        <v>4</v>
+      </c>
+      <c r="I13" s="9">
+        <v>7</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="K13" s="9" t="str">
+        <f>IF(H13&lt;= 6, "Good to Know","Must to Know")</f>
+        <v>Good to Know</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="B3:I12">
-    <sortCondition descending="1" ref="H1"/>
+  <sortState ref="B3:K13">
+    <sortCondition descending="1" ref="H3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1086,7 +1231,7 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1104,7 +1249,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1122,7 +1267,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1139,7 +1284,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="3" t="s">

--- a/content/post/2020-06-29-teaching-a-2-days-forecasting-in-r-workshop-virtually/priority.xlsx
+++ b/content/post/2020-06-29-teaching-a-2-days-forecasting-in-r-workshop-virtually/priority.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bahmanrostami-tabar/Documents/BRTBlog/content/post/2020-06-29-teaching-a-2-days-forecasting-in-r-workshop-virtually/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bahmanrostami-tabar/Documents/1.BRTBlog/content/post/2020-06-29-teaching-a-2-days-forecasting-in-r-workshop-virtually/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26BAC0F-7E9E-9440-8C57-2169AF6C638C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44CFC43-25E9-324F-85F1-0F0C2D66836E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14500" xr2:uid="{1532A227-53F9-A947-ABAE-BFD2B9CD8349}"/>
   </bookViews>
@@ -287,19 +287,19 @@
     <t>What is the current level of skills and knowledge of learners?(3,2,1,0)</t>
   </si>
   <si>
-    <t>How important is the task to the task(main steps  of the forecasting process) ? (3,2,1,0)</t>
-  </si>
-  <si>
     <t>use it few times</t>
   </si>
   <si>
-    <t>time allocated(min)</t>
-  </si>
-  <si>
     <t>cumulative time</t>
   </si>
   <si>
     <t>ETS framework</t>
+  </si>
+  <si>
+    <t>How important is the task to the learning outcome of the topic ? (3,2,1,0)</t>
+  </si>
+  <si>
+    <t>allocated time (min)</t>
   </si>
 </sst>
 </file>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2194E4D-DFDA-F94F-9EBC-5DD647DDEBC4}">
   <dimension ref="B2:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -774,7 +774,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>33</v>
@@ -786,10 +786,10 @@
         <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>27</v>
@@ -815,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="8">
-        <f>SUM(D3:G3)</f>
+        <f t="shared" ref="H3:H13" si="0">SUM(D3:G3)</f>
         <v>12</v>
       </c>
       <c r="I3" s="8">
@@ -826,7 +826,7 @@
         <v>7</v>
       </c>
       <c r="K3" s="6" t="str">
-        <f>IF(H3&lt;= 6, "Good to Know","Must to Know")</f>
+        <f t="shared" ref="K3:K13" si="1">IF(H3&lt;= 6, "Good to Know","Must to Know")</f>
         <v>Must to Know</v>
       </c>
     </row>
@@ -850,7 +850,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="6">
-        <f>SUM(D4:G4)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I4" s="6">
@@ -861,7 +861,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="6" t="str">
-        <f>IF(H4&lt;= 6, "Good to Know","Must to Know")</f>
+        <f t="shared" si="1"/>
         <v>Must to Know</v>
       </c>
     </row>
@@ -885,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="8">
-        <f>SUM(D5:G5)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I5" s="8">
@@ -896,7 +896,7 @@
         <v>24</v>
       </c>
       <c r="K5" s="6" t="str">
-        <f>IF(H5&lt;= 6, "Good to Know","Must to Know")</f>
+        <f t="shared" si="1"/>
         <v>Must to Know</v>
       </c>
     </row>
@@ -920,7 +920,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="8">
-        <f>SUM(D6:G6)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I6" s="8">
@@ -931,7 +931,7 @@
         <v>31</v>
       </c>
       <c r="K6" s="6" t="str">
-        <f>IF(H6&lt;= 6, "Good to Know","Must to Know")</f>
+        <f t="shared" si="1"/>
         <v>Must to Know</v>
       </c>
     </row>
@@ -955,7 +955,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="8">
-        <f>SUM(D7:G7)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I7" s="8">
@@ -966,7 +966,7 @@
         <v>38</v>
       </c>
       <c r="K7" s="6" t="str">
-        <f>IF(H7&lt;= 6, "Good to Know","Must to Know")</f>
+        <f t="shared" si="1"/>
         <v>Must to Know</v>
       </c>
     </row>
@@ -990,7 +990,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="8">
-        <f>SUM(D8:G8)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I8" s="8">
@@ -1001,7 +1001,7 @@
         <v>45</v>
       </c>
       <c r="K8" s="6" t="str">
-        <f>IF(H8&lt;= 6, "Good to Know","Must to Know")</f>
+        <f t="shared" si="1"/>
         <v>Must to Know</v>
       </c>
     </row>
@@ -1025,18 +1025,18 @@
         <v>2</v>
       </c>
       <c r="H9" s="8">
-        <f>SUM(D9:G9)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I9" s="8">
         <v>7</v>
       </c>
       <c r="J9" s="6">
-        <f t="shared" ref="J9:J13" si="0">J8+I9</f>
+        <f t="shared" ref="J9:J13" si="2">J8+I9</f>
         <v>52</v>
       </c>
       <c r="K9" s="6" t="str">
-        <f>IF(H9&lt;= 6, "Good to Know","Must to Know")</f>
+        <f t="shared" si="1"/>
         <v>Must to Know</v>
       </c>
     </row>
@@ -1060,18 +1060,18 @@
         <v>2</v>
       </c>
       <c r="H10" s="8">
-        <f>SUM(D10:G10)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I10" s="8">
         <v>7</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="K10" s="6" t="str">
-        <f>IF(H10&lt;= 6, "Good to Know","Must to Know")</f>
+        <f t="shared" si="1"/>
         <v>Must to Know</v>
       </c>
     </row>
@@ -1095,18 +1095,18 @@
         <v>0</v>
       </c>
       <c r="H11" s="9">
-        <f>SUM(D11:G11)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I11" s="9">
         <v>7</v>
       </c>
       <c r="J11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="K11" s="9" t="str">
-        <f>IF(H11&lt;= 6, "Good to Know","Must to Know")</f>
+        <f t="shared" si="1"/>
         <v>Good to Know</v>
       </c>
     </row>
@@ -1130,18 +1130,18 @@
         <v>0</v>
       </c>
       <c r="H12" s="9">
-        <f>SUM(D12:G12)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I12" s="9">
         <v>7</v>
       </c>
       <c r="J12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="K12" s="9" t="str">
-        <f>IF(H12&lt;= 6, "Good to Know","Must to Know")</f>
+        <f t="shared" si="1"/>
         <v>Good to Know</v>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="13">
         <v>2</v>
@@ -1165,18 +1165,18 @@
         <v>0</v>
       </c>
       <c r="H13" s="9">
-        <f>SUM(D13:G13)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I13" s="9">
         <v>7</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K13" s="9" t="str">
-        <f>IF(H13&lt;= 6, "Good to Know","Must to Know")</f>
+        <f t="shared" si="1"/>
         <v>Good to Know</v>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>31</v>

--- a/content/post/2020-06-29-teaching-a-2-days-forecasting-in-r-workshop-virtually/priority.xlsx
+++ b/content/post/2020-06-29-teaching-a-2-days-forecasting-in-r-workshop-virtually/priority.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bahmanrostami-tabar/Documents/1.BRTBlog/content/post/2020-06-29-teaching-a-2-days-forecasting-in-r-workshop-virtually/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44CFC43-25E9-324F-85F1-0F0C2D66836E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D21FEE-7FB9-F74A-8882-55887E9B73CD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14500" xr2:uid="{1532A227-53F9-A947-ABAE-BFD2B9CD8349}"/>
   </bookViews>
@@ -185,9 +185,6 @@
     <t>Topic</t>
   </si>
   <si>
-    <t>Task</t>
-  </si>
-  <si>
     <t>How important is the task to the main steps  of the forecasting process ? (3,2,1,0)</t>
   </si>
   <si>
@@ -300,6 +297,9 @@
   </si>
   <si>
     <t>allocated time (min)</t>
+  </si>
+  <si>
+    <t>Content/Task</t>
   </si>
 </sst>
 </file>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2194E4D-DFDA-F94F-9EBC-5DD647DDEBC4}">
   <dimension ref="B2:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -768,39 +768,39 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="8">
         <v>3</v>
@@ -832,10 +832,10 @@
     </row>
     <row r="4" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6">
         <v>3</v>
@@ -867,10 +867,10 @@
     </row>
     <row r="5" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="8">
         <v>3</v>
@@ -902,10 +902,10 @@
     </row>
     <row r="6" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="8">
         <v>3</v>
@@ -937,10 +937,10 @@
     </row>
     <row r="7" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="8">
         <v>3</v>
@@ -972,10 +972,10 @@
     </row>
     <row r="8" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="8">
         <v>3</v>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="9" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="8">
         <v>3</v>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="10" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="8">
         <v>3</v>
@@ -1077,10 +1077,10 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="13">
         <v>3</v>
@@ -1112,10 +1112,10 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="13">
         <v>3</v>
@@ -1147,10 +1147,10 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="13">
         <v>2</v>
@@ -1232,72 +1232,72 @@
     </row>
     <row r="5" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B7" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
